--- a/utils/localisation_script/excel_to_json/pa/a.xlsx
+++ b/utils/localisation_script/excel_to_json/pa/a.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/umair.manzoor/Projects/Open-Speech-EkStep/crowdsource-dataplatform/utils/localisation_script/excel_to_json/pa/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sreejithv/TW/projects/ekStep/crowdsource-dataplatform/utils/localisation_script/excel_to_json/pa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE64D7C5-8092-9F47-BB81-BA7B178E2418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE1AB64-3C76-584C-AD84-C865DB67DB70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="500" windowWidth="33200" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33200" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mar 25th content" sheetId="12" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>English copy</t>
   </si>
@@ -387,7 +387,7 @@
   <dimension ref="A2:Z908"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -403,9 +403,7 @@
   <sheetData>
     <row r="2" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
